--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/2sum-binary-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BST iterator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/bst-iterator/</t>
   </si>
 </sst>
 </file>
@@ -131,10 +137,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -152,9 +158,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/2sum-binary-tree/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/bst-iterator/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/bst-iterator/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inorder traversal of cartesian tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/inorder-traversal-of-cartesian-tree/</t>
   </si>
 </sst>
 </file>
@@ -137,16 +143,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.9897959183674"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.2397959183674"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -166,10 +172,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/2sum-binary-tree/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/bst-iterator/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/inorder-traversal-of-cartesian-tree/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/inorder-traversal-of-cartesian-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorted array to bst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/sorted-array-to-balanced-bst/</t>
   </si>
 </sst>
 </file>
@@ -143,10 +149,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -180,11 +186,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/2sum-binary-tree/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/bst-iterator/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/inorder-traversal-of-cartesian-tree/"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/sorted-array-to-balanced-bst/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/sorted-array-to-balanced-bst/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BST from inorder and postorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/binary-tree-from-inorder-and-postorder/</t>
   </si>
 </sst>
 </file>
@@ -149,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -194,12 +200,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/2sum-binary-tree/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/bst-iterator/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/inorder-traversal-of-cartesian-tree/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/sorted-array-to-balanced-bst/"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/binary-tree-from-inorder-and-postorder/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/binary-tree-from-inorder-and-postorder/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove half nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/remove-half-nodes/</t>
   </si>
 </sst>
 </file>
@@ -64,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,6 +92,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,17 +163,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.2397959183674"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -206,6 +214,14 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -215,6 +231,7 @@
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/inorder-traversal-of-cartesian-tree/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/sorted-array-to-balanced-bst/"/>
     <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/binary-tree-from-inorder-and-postorder/"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/remove-half-nodes/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/remove-half-nodes/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertical order traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/vertical-order-traversal-of-binary-tree/</t>
   </si>
 </sst>
 </file>
@@ -163,17 +169,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.8826530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,6 +227,14 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -232,6 +245,7 @@
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/sorted-array-to-balanced-bst/"/>
     <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/binary-tree-from-inorder-and-postorder/"/>
     <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/remove-half-nodes/"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/vertical-order-traversal-of-binary-tree/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/vertical-order-traversal-of-binary-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagonal traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/diagonal-traversal/</t>
   </si>
 </sst>
 </file>
@@ -169,10 +175,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -237,6 +243,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/2sum-binary-tree/"/>
@@ -246,6 +260,7 @@
     <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/binary-tree-from-inorder-and-postorder/"/>
     <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/remove-half-nodes/"/>
     <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/vertical-order-traversal-of-binary-tree/"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/diagonal-traversal/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/diagonal-traversal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/path-sum/</t>
   </si>
 </sst>
 </file>
@@ -175,10 +181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -251,6 +257,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/2sum-binary-tree/"/>
@@ -261,6 +275,7 @@
     <hyperlink ref="B6" r:id="rId6" display="https://www.interviewbit.com/problems/remove-half-nodes/"/>
     <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/vertical-order-traversal-of-binary-tree/"/>
     <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/diagonal-traversal/"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://www.interviewbit.com/problems/path-sum/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/path-sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root to leaf path with sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/root-to-leaf-paths-with-sum/</t>
   </si>
 </sst>
 </file>
@@ -181,10 +187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -265,6 +271,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/2sum-binary-tree/"/>
@@ -276,6 +290,7 @@
     <hyperlink ref="B7" r:id="rId7" display="https://www.interviewbit.com/problems/vertical-order-traversal-of-binary-tree/"/>
     <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/diagonal-traversal/"/>
     <hyperlink ref="B9" r:id="rId9" display="https://www.interviewbit.com/problems/path-sum/"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://www.interviewbit.com/problems/root-to-leaf-paths-with-sum/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/root-to-leaf-paths-with-sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min depth of binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/min-depth-of-binary-tree/</t>
   </si>
 </sst>
 </file>
@@ -187,10 +193,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -277,6 +283,14 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -291,6 +305,7 @@
     <hyperlink ref="B8" r:id="rId8" display="https://www.interviewbit.com/problems/diagonal-traversal/"/>
     <hyperlink ref="B9" r:id="rId9" display="https://www.interviewbit.com/problems/path-sum/"/>
     <hyperlink ref="B10" r:id="rId10" display="https://www.interviewbit.com/problems/root-to-leaf-paths-with-sum/"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://www.interviewbit.com/problems/min-depth-of-binary-tree/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/min-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sum root to leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/sum-root-to-leaf-numbers/</t>
   </si>
 </sst>
 </file>
@@ -193,16 +199,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A13 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.8826530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,6 +298,14 @@
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -306,6 +321,7 @@
     <hyperlink ref="B9" r:id="rId9" display="https://www.interviewbit.com/problems/path-sum/"/>
     <hyperlink ref="B10" r:id="rId10" display="https://www.interviewbit.com/problems/root-to-leaf-paths-with-sum/"/>
     <hyperlink ref="B11" r:id="rId11" display="https://www.interviewbit.com/problems/min-depth-of-binary-tree/"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://www.interviewbit.com/problems/sum-root-to-leaf-numbers/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/sum-root-to-leaf-numbers/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invert the binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/invert-the-binary-tree/</t>
   </si>
 </sst>
 </file>
@@ -199,10 +205,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A13 A12"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -306,6 +312,14 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -322,6 +336,7 @@
     <hyperlink ref="B10" r:id="rId10" display="https://www.interviewbit.com/problems/root-to-leaf-paths-with-sum/"/>
     <hyperlink ref="B11" r:id="rId11" display="https://www.interviewbit.com/problems/min-depth-of-binary-tree/"/>
     <hyperlink ref="B12" r:id="rId12" display="https://www.interviewbit.com/problems/sum-root-to-leaf-numbers/"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://www.interviewbit.com/problems/invert-the-binary-tree/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/invert-the-binary-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right view of binary tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/right-view-of-binary-tree/</t>
   </si>
 </sst>
 </file>
@@ -205,10 +211,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -320,6 +326,14 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -337,6 +351,7 @@
     <hyperlink ref="B11" r:id="rId11" display="https://www.interviewbit.com/problems/min-depth-of-binary-tree/"/>
     <hyperlink ref="B12" r:id="rId12" display="https://www.interviewbit.com/problems/sum-root-to-leaf-numbers/"/>
     <hyperlink ref="B13" r:id="rId13" display="https://www.interviewbit.com/problems/invert-the-binary-tree/"/>
+    <hyperlink ref="B14" r:id="rId14" display="https://www.interviewbit.com/problems/right-view-of-binary-tree/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/right-view-of-binary-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zig zag traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/zigzag-level-order-traversal-bt/</t>
   </si>
 </sst>
 </file>
@@ -211,10 +217,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -334,6 +340,14 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -352,6 +366,7 @@
     <hyperlink ref="B12" r:id="rId12" display="https://www.interviewbit.com/problems/sum-root-to-leaf-numbers/"/>
     <hyperlink ref="B13" r:id="rId13" display="https://www.interviewbit.com/problems/invert-the-binary-tree/"/>
     <hyperlink ref="B14" r:id="rId14" display="https://www.interviewbit.com/problems/right-view-of-binary-tree/"/>
+    <hyperlink ref="B15" r:id="rId15" display="https://www.interviewbit.com/problems/zigzag-level-order-traversal-bt/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Trees.xlsx
+++ b/Trees.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">2 sum binary tree</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/zigzag-level-order-traversal-bt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">populate next right pointers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/populate-next-right-pointers-tree/</t>
   </si>
 </sst>
 </file>
@@ -217,10 +223,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -348,6 +354,14 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -367,6 +381,7 @@
     <hyperlink ref="B13" r:id="rId13" display="https://www.interviewbit.com/problems/invert-the-binary-tree/"/>
     <hyperlink ref="B14" r:id="rId14" display="https://www.interviewbit.com/problems/right-view-of-binary-tree/"/>
     <hyperlink ref="B15" r:id="rId15" display="https://www.interviewbit.com/problems/zigzag-level-order-traversal-bt/"/>
+    <hyperlink ref="B16" r:id="rId16" display="https://www.interviewbit.com/problems/populate-next-right-pointers-tree/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
